--- a/server/assets/区县节点报名表.xlsx
+++ b/server/assets/区县节点报名表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="256">
   <si>
     <t>INTO中国社区首批区县节点统计表（选择重复）</t>
   </si>
@@ -233,12 +233,6 @@
   </si>
   <si>
     <t>0x32D526A715Dc5254a7EfB88f4f6dE682bb1f7E03</t>
-  </si>
-  <si>
-    <t>肖帮琼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0xd50c34D0893859205872816bDe8A28DF1eC8E232</t>
   </si>
   <si>
     <t>郭雷</t>
@@ -1878,10 +1872,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A60" sqref="$A60:$XFD61"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -2465,19 +2459,19 @@
     </row>
     <row r="25" ht="19.95" customHeight="1" spans="1:8">
       <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>74</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>22</v>
@@ -2489,18 +2483,18 @@
     </row>
     <row r="26" ht="19.95" customHeight="1" spans="1:8">
       <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -2513,7 +2507,7 @@
     </row>
     <row r="27" ht="19.95" customHeight="1" spans="1:8">
       <c r="A27" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>26</v>
@@ -2522,10 +2516,10 @@
         <v>78</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>22</v>
@@ -2537,18 +2531,18 @@
     </row>
     <row r="28" ht="19.95" customHeight="1" spans="1:8">
       <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -2561,7 +2555,7 @@
     </row>
     <row r="29" ht="19.95" customHeight="1" spans="1:8">
       <c r="A29" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>63</v>
@@ -2570,10 +2564,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>22</v>
@@ -2585,18 +2579,18 @@
     </row>
     <row r="30" ht="19.95" customHeight="1" spans="1:8">
       <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -2609,19 +2603,19 @@
     </row>
     <row r="31" ht="19.95" customHeight="1" spans="1:8">
       <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>89</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>22</v>
@@ -2633,16 +2627,16 @@
     </row>
     <row r="32" ht="19.95" customHeight="1" spans="1:8">
       <c r="A32" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>92</v>
@@ -2657,18 +2651,18 @@
     </row>
     <row r="33" ht="19.95" customHeight="1" spans="1:8">
       <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>94</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -2681,7 +2675,7 @@
     </row>
     <row r="34" ht="19.95" customHeight="1" spans="1:8">
       <c r="A34" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -2690,10 +2684,10 @@
         <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>22</v>
@@ -2705,18 +2699,18 @@
     </row>
     <row r="35" ht="19.95" customHeight="1" spans="1:8">
       <c r="A35" s="4">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>99</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -2729,19 +2723,19 @@
     </row>
     <row r="36" ht="19.95" customHeight="1" spans="1:8">
       <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>101</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>22</v>
@@ -2753,18 +2747,18 @@
     </row>
     <row r="37" ht="19.95" customHeight="1" spans="1:8">
       <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>104</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2777,79 +2771,79 @@
     </row>
     <row r="38" ht="19.95" customHeight="1" spans="1:8">
       <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="E38" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F38" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H38" s="10"/>
     </row>
     <row r="39" ht="19.95" customHeight="1" spans="1:8">
       <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>14</v>
+      <c r="G39" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="H39" s="10"/>
     </row>
     <row r="40" ht="19.95" customHeight="1" spans="1:8">
       <c r="A40" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" ht="19.95" customHeight="1" spans="1:8">
       <c r="A41" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>63</v>
@@ -2858,10 +2852,10 @@
         <v>113</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>22</v>
@@ -2873,7 +2867,7 @@
     </row>
     <row r="42" ht="19.95" customHeight="1" spans="1:8">
       <c r="A42" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>63</v>
@@ -2882,7 +2876,7 @@
         <v>115</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>116</v>
@@ -2897,18 +2891,18 @@
     </row>
     <row r="43" ht="19.95" customHeight="1" spans="1:8">
       <c r="A43" s="4">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="D43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -2921,19 +2915,19 @@
     </row>
     <row r="44" ht="19.95" customHeight="1" spans="1:8">
       <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="8" t="s">
         <v>120</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>22</v>
@@ -2945,18 +2939,18 @@
     </row>
     <row r="45" ht="19.95" customHeight="1" spans="1:8">
       <c r="A45" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="D45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -2969,19 +2963,19 @@
     </row>
     <row r="46" ht="19.95" customHeight="1" spans="1:8">
       <c r="A46" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>22</v>
@@ -2993,16 +2987,16 @@
     </row>
     <row r="47" ht="19.95" customHeight="1" spans="1:8">
       <c r="A47" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="5" t="s">
         <v>127</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>128</v>
@@ -3017,21 +3011,21 @@
     </row>
     <row r="48" ht="19.95" customHeight="1" spans="1:8">
       <c r="A48" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>127</v>
+      <c r="D48" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -3041,21 +3035,21 @@
     </row>
     <row r="49" ht="19.95" customHeight="1" spans="1:8">
       <c r="A49" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -3065,16 +3059,16 @@
     </row>
     <row r="50" ht="19.95" customHeight="1" spans="1:8">
       <c r="A50" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>134</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>135</v>
@@ -3089,19 +3083,19 @@
     </row>
     <row r="51" ht="19.95" customHeight="1" spans="1:8">
       <c r="A51" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>22</v>
@@ -3113,16 +3107,16 @@
     </row>
     <row r="52" ht="19.95" customHeight="1" spans="1:8">
       <c r="A52" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>140</v>
@@ -3137,7 +3131,7 @@
     </row>
     <row r="53" ht="19.95" customHeight="1" spans="1:8">
       <c r="A53" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>63</v>
@@ -3146,31 +3140,31 @@
         <v>141</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>23</v>
+        <v>143</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="H53" s="10"/>
     </row>
     <row r="54" ht="19.95" customHeight="1" spans="1:8">
       <c r="A54" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>145</v>
@@ -3178,49 +3172,49 @@
       <c r="F54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>112</v>
+      <c r="G54" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H54" s="10"/>
     </row>
     <row r="55" ht="19.95" customHeight="1" spans="1:8">
       <c r="A55" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>13</v>
+        <v>148</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H55" s="10"/>
     </row>
     <row r="56" ht="19.95" customHeight="1" spans="1:8">
       <c r="A56" s="4">
-        <v>54</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="D56" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>150</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -3233,19 +3227,19 @@
     </row>
     <row r="57" ht="19.95" customHeight="1" spans="1:8">
       <c r="A57" s="4">
-        <v>55</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>152</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>22</v>
@@ -3257,18 +3251,18 @@
     </row>
     <row r="58" ht="19.95" customHeight="1" spans="1:8">
       <c r="A58" s="4">
-        <v>56</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="D58" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -3281,40 +3275,40 @@
     </row>
     <row r="59" ht="19.95" customHeight="1" spans="1:8">
       <c r="A59" s="4">
-        <v>57</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="D59" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>22</v>
+      <c r="E59" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H59" s="10"/>
     </row>
     <row r="60" ht="19.95" customHeight="1" spans="1:8">
       <c r="A60" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>160</v>
@@ -3322,14 +3316,14 @@
       <c r="F60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>14</v>
+      <c r="G60" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="H60" s="10"/>
     </row>
     <row r="61" ht="19.95" customHeight="1" spans="1:8">
       <c r="A61" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>63</v>
@@ -3338,34 +3332,34 @@
         <v>161</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>112</v>
+        <v>163</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H61" s="10"/>
     </row>
     <row r="62" ht="19.95" customHeight="1" spans="1:8">
       <c r="A62" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>22</v>
@@ -3377,19 +3371,19 @@
     </row>
     <row r="63" ht="19.95" customHeight="1" spans="1:8">
       <c r="A63" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>22</v>
@@ -3401,7 +3395,7 @@
     </row>
     <row r="64" ht="19.95" customHeight="1" spans="1:8">
       <c r="A64" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>63</v>
@@ -3410,175 +3404,175 @@
         <v>167</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>23</v>
+        <v>169</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="H64" s="10"/>
     </row>
     <row r="65" ht="19.95" customHeight="1" spans="1:8">
       <c r="A65" s="4">
-        <v>65</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D65" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="D65" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>112</v>
+      <c r="G65" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H65" s="10"/>
     </row>
     <row r="66" ht="19.95" customHeight="1" spans="1:8">
       <c r="A66" s="4">
-        <v>66</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" s="4" t="s">
+      <c r="D66" s="5" t="s">
         <v>173</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>14</v>
+      <c r="G66" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="H66" s="10"/>
     </row>
     <row r="67" ht="19.95" customHeight="1" spans="1:8">
       <c r="A67" s="4">
-        <v>67</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D67" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="D67" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>112</v>
+      <c r="G67" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H67" s="10"/>
     </row>
     <row r="68" ht="19.95" customHeight="1" spans="1:8">
       <c r="A68" s="4">
-        <v>68</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="D68" s="5" t="s">
         <v>178</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>14</v>
+      <c r="G68" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="H68" s="10"/>
     </row>
     <row r="69" ht="19.95" customHeight="1" spans="1:8">
       <c r="A69" s="4">
-        <v>69</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="D69" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>112</v>
+      <c r="G69" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H69" s="10"/>
     </row>
     <row r="70" ht="19.95" customHeight="1" spans="1:8">
       <c r="A70" s="4">
-        <v>70</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="D70" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>13</v>
+      <c r="E70" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H70" s="10"/>
     </row>
     <row r="71" ht="19.95" customHeight="1" spans="1:8">
       <c r="A71" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>184</v>
+        <v>18</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>186</v>
@@ -3593,42 +3587,42 @@
     </row>
     <row r="72" ht="19.95" customHeight="1" spans="1:8">
       <c r="A72" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>22</v>
+        <v>189</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H72" s="10"/>
     </row>
     <row r="73" ht="19.95" customHeight="1" spans="1:8">
       <c r="A73" s="4">
-        <v>73</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="D73" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F73" s="5" t="s">
@@ -3641,21 +3635,21 @@
     </row>
     <row r="74" ht="19.95" customHeight="1" spans="1:8">
       <c r="A74" s="4">
-        <v>74</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -3665,7 +3659,7 @@
     </row>
     <row r="75" ht="19.95" customHeight="1" spans="1:8">
       <c r="A75" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>40</v>
@@ -3674,31 +3668,31 @@
         <v>194</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H75" s="10"/>
     </row>
     <row r="76" ht="19.95" customHeight="1" spans="1:8">
       <c r="A76" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>198</v>
@@ -3713,7 +3707,7 @@
     </row>
     <row r="77" ht="19.95" customHeight="1" spans="1:8">
       <c r="A77" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>15</v>
@@ -3722,10 +3716,10 @@
         <v>199</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>22</v>
@@ -3737,16 +3731,16 @@
     </row>
     <row r="78" ht="19.95" customHeight="1" spans="1:8">
       <c r="A78" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>203</v>
@@ -3761,19 +3755,19 @@
     </row>
     <row r="79" ht="19.95" customHeight="1" spans="1:8">
       <c r="A79" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>204</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>22</v>
@@ -3785,16 +3779,16 @@
     </row>
     <row r="80" ht="19.95" customHeight="1" spans="1:8">
       <c r="A80" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>208</v>
@@ -3809,7 +3803,7 @@
     </row>
     <row r="81" ht="19.95" customHeight="1" spans="1:8">
       <c r="A81" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>15</v>
@@ -3818,10 +3812,10 @@
         <v>209</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>22</v>
@@ -3833,16 +3827,16 @@
     </row>
     <row r="82" ht="19.95" customHeight="1" spans="1:8">
       <c r="A82" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>213</v>
@@ -3857,7 +3851,7 @@
     </row>
     <row r="83" ht="19.95" customHeight="1" spans="1:8">
       <c r="A83" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>40</v>
@@ -3866,10 +3860,10 @@
         <v>214</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>22</v>
@@ -3881,16 +3875,16 @@
     </row>
     <row r="84" ht="19.95" customHeight="1" spans="1:8">
       <c r="A84" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>218</v>
@@ -3905,7 +3899,7 @@
     </row>
     <row r="85" ht="19.95" customHeight="1" spans="1:8">
       <c r="A85" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>15</v>
@@ -3914,10 +3908,10 @@
         <v>219</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>22</v>
@@ -3929,16 +3923,16 @@
     </row>
     <row r="86" ht="19.95" customHeight="1" spans="1:8">
       <c r="A86" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>223</v>
@@ -3953,112 +3947,112 @@
     </row>
     <row r="87" ht="19.95" customHeight="1" spans="1:8">
       <c r="A87" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>224</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>22</v>
+        <v>226</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H87" s="10"/>
     </row>
     <row r="88" ht="19.95" customHeight="1" spans="1:8">
       <c r="A88" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>13</v>
+      <c r="F88" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H88" s="10"/>
     </row>
     <row r="89" ht="19.95" customHeight="1" spans="1:8">
       <c r="A89" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>22</v>
+      <c r="F89" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H89" s="10"/>
     </row>
     <row r="90" ht="19.95" customHeight="1" spans="1:8">
       <c r="A90" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>227</v>
+      <c r="D90" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>13</v>
+        <v>233</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H90" s="10"/>
     </row>
     <row r="91" ht="19.95" customHeight="1" spans="1:8">
       <c r="A91" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D91" s="6" t="s">
         <v>234</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>235</v>
@@ -4073,40 +4067,40 @@
     </row>
     <row r="92" ht="19.95" customHeight="1" spans="1:8">
       <c r="A92" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>236</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>22</v>
+        <v>238</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H92" s="10"/>
     </row>
     <row r="93" ht="19.95" customHeight="1" spans="1:8">
       <c r="A93" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>240</v>
@@ -4121,21 +4115,21 @@
     </row>
     <row r="94" ht="19.95" customHeight="1" spans="1:8">
       <c r="A94" s="4">
-        <v>94</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="E94" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G94" s="4" t="s">
@@ -4145,16 +4139,16 @@
     </row>
     <row r="95" ht="19.95" customHeight="1" spans="1:8">
       <c r="A95" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>245</v>
@@ -4169,40 +4163,40 @@
     </row>
     <row r="96" ht="19.95" customHeight="1" spans="1:8">
       <c r="A96" s="4">
-        <v>96</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E96" s="4" t="s">
+      <c r="D96" s="5" t="s">
         <v>247</v>
       </c>
+      <c r="E96" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="F96" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H96" s="10"/>
     </row>
     <row r="97" ht="19.95" customHeight="1" spans="1:8">
       <c r="A97" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>250</v>
@@ -4215,42 +4209,42 @@
       </c>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" ht="19.95" customHeight="1" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>251</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E98" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" ht="18" spans="1:8">
+      <c r="A99" s="4">
+        <v>100</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="4">
-        <v>99</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>255</v>
@@ -4258,60 +4252,36 @@
       <c r="F99" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G99" s="5" t="s">
-        <v>112</v>
+      <c r="G99" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H99" s="10"/>
-    </row>
-    <row r="100" ht="18" spans="1:8">
-      <c r="A100" s="4">
-        <v>100</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D99">
+  <conditionalFormatting sqref="D98">
     <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
+  <conditionalFormatting sqref="D99">
     <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65534">
+  <conditionalFormatting sqref="C2:C65533">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D65534">
+  <conditionalFormatting sqref="D2:D65533">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D98">
+  <conditionalFormatting sqref="D3:D97">
     <cfRule type="duplicateValues" dxfId="0" priority="331" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D101:D65534">
+  <conditionalFormatting sqref="D100:D65533">
     <cfRule type="duplicateValues" dxfId="0" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D101:D65534">
+  <conditionalFormatting sqref="D2 D100:D65533">
     <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/assets/区县节点报名表.xlsx
+++ b/server/assets/区县节点报名表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="3264" windowHeight="22700"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -1874,8 +1874,8 @@
   <sheetPr/>
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD25"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E87" sqref="$A1:$XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
